--- a/vgp_database/Clear_Lake_volcanic_field.xlsx
+++ b/vgp_database/Clear_Lake_volcanic_field.xlsx
@@ -2360,8 +2360,8 @@
         <v>3.1</v>
       </c>
       <c r="J17" s="33"/>
-      <c r="K17" s="32">
-        <v>16.3</v>
+      <c r="K17" s="16">
+        <v>-16.3</v>
       </c>
       <c r="L17" s="32">
         <v>311.3</v>
